--- a/test_youtube/Testingset/rasmasknet/face9_2.xlsx
+++ b/test_youtube/Testingset/rasmasknet/face9_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukri\Desktop\New folder\9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukri\Desktop\AICARES\AICARE\test_youtube\Testingset\rasmasknet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24B1D39-E1CC-46F0-8216-4FC1D78F310B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA5AD37-E71B-4D99-95A6-66601264655E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
